--- a/DB files - Excel/tblStudyObjectives.xlsx
+++ b/DB files - Excel/tblStudyObjectives.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -3574,6 +3574,1131 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Available biomass open reefs</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>The biomass that would be selected by fishing gear if subject to fishing pressure, and if caught, legally retained, by species, relative to status quo management procedure.</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="inlineStr">
+        <is>
+          <t>B(species)/B(status quo)-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Available biomass closed reefs</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>The biomass that would be selected by fishing gear if subject to fishing pressure, and if caught, legally retained, by species, relative to status quo management procedure.</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="inlineStr">
+        <is>
+          <t>B(species)/B(status quo)-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Commercial harvest</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>The commerical harvest, by species, relative to status quo management procedure.</t>
+        </is>
+      </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G71" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I71" s="5" t="inlineStr">
+        <is>
+          <t>H(species)/H(status quo)-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Commercial CPUE</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>The commerical catch per unit effort, by species, relative to status quo management procedure.</t>
+        </is>
+      </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I72" s="5" t="inlineStr">
+        <is>
+          <t>CPUE(species)/CPUE(status quo)-1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>Average annual catch</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>catch/year(all). Average annual catch over the evaluation period.</t>
+        </is>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G73" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>catch/year(all)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Average annual catch, first five years</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>catch/year(1st 5). Average annual catch over the first five years of the evaluation period.</t>
+        </is>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I74" s="5" t="inlineStr">
+        <is>
+          <t>catch/year(1st 5)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>Spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>SSB/SSB(0). Spawning stock biomass in final year relative to the unfished biomass.</t>
+        </is>
+      </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G75" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I75" s="5" t="inlineStr">
+        <is>
+          <t>SSB/SSB(0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Minimum spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>SSB(min)/SSB(0). Minimum spawning stock biomassover the evaluation period relative to the unfished biomass.</t>
+        </is>
+      </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H76" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I76" s="5" t="inlineStr">
+        <is>
+          <t>SSB(min)/SSB(0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>Catch Variability</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>%AAV. Average absolute percentage inter-annual change in catch over the evaluation period.</t>
+        </is>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G77" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H77" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I77" s="5" t="inlineStr">
+        <is>
+          <t>%AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>spawning stock biomass below limit</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>p(SSB&lt;B(20)).  Probability of spawning stock biomass declining below the limit reference point</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H78" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I78" s="5" t="inlineStr">
+        <is>
+          <t>p(SSB&lt;B(20))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>Threshold N(mnp) probability</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>p(N&lt;N(mnp)) Probability that the abundance is below the abundance at maximum net productivity (MNP) is less than 5%.</t>
+        </is>
+      </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H79" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I79" s="5" t="inlineStr">
+        <is>
+          <t>p(N&lt;N(mnp))&lt;5%</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>Threshold N(collapse) probability</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>p(N&lt;N(collapse)) Probability that the abundance is below 10% of virgin abundance (collapse) is less than 2.5%.</t>
+        </is>
+      </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H80" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I80" s="5" t="inlineStr">
+        <is>
+          <t>p(N&lt;N(collapse))&lt;2.5%</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>Rebuilding time</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>Probability the time required by a population to rebuild to the NMNP threshold to no more than 10% longer than the time it would take without human-caused mortality</t>
+        </is>
+      </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G81" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H81" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I81" s="5" t="inlineStr">
+        <is>
+          <t>p(T(human)&gt;T(w/o human)*1.1)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>SSB(limit)</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>Maintain spawning stock biomass above LRP = 0.4B(msy) in 95% of years measured over two sablefish generations (i.e. 36 years), where BMSY is defined by operating model scenario</t>
+        </is>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H82" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I82" s="5" t="inlineStr">
+        <is>
+          <t>p(SSB&gt;=0.4B(msy))&gt;=95%</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Minimize long-term decline</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>When the spawning stock biomass falls within the cautious zone (0.4BMSY &lt; B &lt; 0.8BMSY), limit the probability of decline over the subsequent 10 years from very low (5%) when at the LRP to moderate (50%) when at BMSY. At stock status levels between these two points, define the tolerance for decline by linear interpolation (Fig. 1a). Biological reference points defining stock status zones are defined by the operating model scenario</t>
+        </is>
+      </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G83" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H83" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I83" s="5" t="inlineStr">
+        <is>
+          <t>p(decline)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>SSB(target)</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>Maintain spawning biomass above the target reference point BMSY in 50% of the projection years measured over two sablefish generations, where BMSY is defined by operating model scenario</t>
+        </is>
+      </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H84" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I84" s="5" t="inlineStr">
+        <is>
+          <t>p(SSB&gt;=B(msy))&gt;=50%</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>average annual variability in catch</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>Maintain 10-year average annual variability in catch (AAV) of less than 15%</t>
+        </is>
+      </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G85" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H85" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I85" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>Maximize the median average catch over the first 10 projection years</t>
+        </is>
+      </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H86" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I86" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Biomass</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>p(SB(2025)&gt;0.4SB(1951)). Probability that the egg production (spawning biomass, SB) in 2025 exceeds 40% of the egg production in 1951.</t>
+        </is>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G87" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H87" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I87" s="5" t="inlineStr">
+        <is>
+          <t>p(SB(2025)&gt;0.4SB(1951))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>Exploitable Biomass limit</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>p(EB(2025)&gt;0.2EB(1951)). Probability that the exploitable biomass (EB) in 2025 exceeds 20% of the exploitable biomass in 1951.</t>
+        </is>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H88" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I88" s="5" t="inlineStr">
+        <is>
+          <t>p(EB(2025)&gt;0.2EB(1951))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>Exploitable Biomass target</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>p(EB(2025)&gt;0.4EB(1951)). Probability that the exploitable biomass (EB) in 2025 exceeds 40% of the exploitable biomass in 1951.</t>
+        </is>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G89" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H89" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I89" s="5" t="inlineStr">
+        <is>
+          <t>p(EB(2025)&gt;0.4EB(1951))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>Median average catch from 2005-14</t>
+        </is>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H90" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I90" s="5" t="inlineStr">
+        <is>
+          <t>median(C(2005-2014))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>Catch limit</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>5th percential of average catch from 2005-14</t>
+        </is>
+      </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G91" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H91" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I91" s="5" t="inlineStr">
+        <is>
+          <t>5th%(C(2005-2014))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>TAC reduction</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>Trend in Catch, measured as p(reduction in TAC between 2005 and 2014)</t>
+        </is>
+      </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H92" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I92" s="5" t="inlineStr">
+        <is>
+          <t>p(TAC(y+1)&lt;TAC(y))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>Variation in catch</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>Absolute annual variation in catch (2005-2014)</t>
+        </is>
+      </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G93" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H93" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I93" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB files - Excel/tblStudyObjectives.xlsx
+++ b/DB files - Excel/tblStudyObjectives.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4699,6 +4699,1679 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>Stock relative to MSY</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>S(y)/S(msy)*100.  The stock status as a percentage of the stock status at MSY, by species</t>
+        </is>
+      </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H94" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I94" s="5" t="inlineStr">
+        <is>
+          <t>S(y)/S(msy)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>Stock relative to maximum economic yield</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>S(y)/S(mey)*100.  The stock status as a percentage of the stock status at MEY, by species</t>
+        </is>
+      </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G95" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H95" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I95" s="5" t="inlineStr">
+        <is>
+          <t>S(y)/S(mey)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>Stock relative to limit reference point</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>S(y)/S(msy)*100.  5-year moving average of stock size ratio – the limit reference point that causes fishery closure</t>
+        </is>
+      </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H96" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I96" s="5" t="inlineStr">
+        <is>
+          <t>S(y)/S(msy)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>Effort</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>Annual effort targeted towards either grooved tiger or brown tiger prawns.</t>
+        </is>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G97" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H97" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I97" s="5" t="inlineStr">
+        <is>
+          <t>E(y)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>Biomass per area</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>Spatial biomass (kg) distribution which can then be summed over functional group or habitat or converted to density (kg/ha). The biomass (kg) in 6-minute grid cell g for functional group f in the year y.</t>
+        </is>
+      </c>
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H98" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I98" s="5" t="inlineStr">
+        <is>
+          <t>B(y,a)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>Biomass functional group</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>B(f)/B(f,BC)*100 Percentage change in functional group biomass  relative to Base Case. The total biomass in functional group relative to the median over all simulations of the total biomass under the Base Case.</t>
+        </is>
+      </c>
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G99" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H99" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I99" s="5" t="inlineStr">
+        <is>
+          <t>B(f)/B(f,BC)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>Biomass functional group by habitat</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>B(f,h)/B(f,h,BC)*100 Percentage change in functional group biomass by habitat relative to Base Case. The total biomass in functional group by habitat relative to the median over all simulations of the total biomass by habitat under the Base Case.</t>
+        </is>
+      </c>
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H100" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I100" s="5" t="inlineStr">
+        <is>
+          <t>B(f,h)/B(f,h,BC)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>Percentage change in ecosystem biomass relative to end of historical period</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>B(2016)/B(2008)*100 The total ecosystem biomass at the beginning of year y, the summation being over all functional groups or all non-producer groups.</t>
+        </is>
+      </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G101" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H101" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I101" s="5" t="inlineStr">
+        <is>
+          <t>B(2016)/B(2008)*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>Effects of trawling indicator</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>The EoT indicator at time t for species s in habitat h. The summation is over all cells g within the habitat. B(t,s,g) is the long-term relative biomass under E(MEY) calculated at time t.</t>
+        </is>
+      </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H102" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I102" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>Percentage area closed to fishing</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E103" s="6" t="inlineStr">
+        <is>
+          <t>Percentage area closed to fishing</t>
+        </is>
+      </c>
+      <c r="F103" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G103" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H103" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I103" s="5" t="inlineStr">
+        <is>
+          <t>A*100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>Displaced effort (boat days)</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>Effort relocated based on closures.</t>
+        </is>
+      </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H104" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I104" s="5" t="inlineStr">
+        <is>
+          <t>E®</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>Number of species at risk</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>u(s)&gt;u(msm)  where u¬s is the fishing mortality for species s and T is the set of TEP species. The species is defined to be ‘at risk’ if  .</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G105" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H105" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I105" s="5" t="inlineStr">
+        <is>
+          <t>u(s)&gt;u(msm)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>Probability of species at risk</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>p(u(s)&gt;u(msm)) stimated as the proportion of simulations for which species s is at risk.</t>
+        </is>
+      </c>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H106" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I106" s="5" t="inlineStr">
+        <is>
+          <t>p(u(s)&gt;u(msm))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>Spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>SSB Spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G107" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H107" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I107" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>Fishing mortality</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>F, Fishing mortality</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H108" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I108" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>Effort</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>E(y)/E(2013), Relative change in effort</t>
+        </is>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G109" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H109" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I109" s="5" t="inlineStr">
+        <is>
+          <t>E(y)/E(2013)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>C, Catch in tonnes</t>
+        </is>
+      </c>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H110" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I110" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>Stock at MSY</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>P(S(2010)&gt;S(msy)), Probability stock size is at or above the stock size at maximum sustainable yield</t>
+        </is>
+      </c>
+      <c r="F111" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G111" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H111" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I111" s="5" t="inlineStr">
+        <is>
+          <t>P(S(2010)&gt;S(msy))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>Relative stock status</t>
+        </is>
+      </c>
+      <c r="D112" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>S(2010)/S(msy), Stock Size relative to maximum sustainable yield</t>
+        </is>
+      </c>
+      <c r="F112" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H112" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I112" s="5" t="inlineStr">
+        <is>
+          <t>S(2010)/S(msy)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>Discounted Catch</t>
+        </is>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>total discounted annual catch</t>
+        </is>
+      </c>
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G113" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H113" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I113" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>Catch below limit</t>
+        </is>
+      </c>
+      <c r="D114" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>P(C(y)&gt;C(limit)), Percentage of years that catch is less than the critical limit</t>
+        </is>
+      </c>
+      <c r="F114" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H114" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I114" s="5" t="inlineStr">
+        <is>
+          <t>P(C(y)&gt;C(limit))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>Minimum catch</t>
+        </is>
+      </c>
+      <c r="D115" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>Lowest catch taken over evaluation period</t>
+        </is>
+      </c>
+      <c r="F115" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G115" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H115" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I115" s="5" t="inlineStr">
+        <is>
+          <t>C(low)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>Stability of catch</t>
+        </is>
+      </c>
+      <c r="D116" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>The stability of the catches is measured
+by the average absolute (percentage) change in landed
+catches from year to year, AAV</t>
+        </is>
+      </c>
+      <c r="F116" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H116" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I116" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Biomass</t>
+        </is>
+      </c>
+      <c r="D117" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>SSB(2030)/SSB(1995). The expected spawning biomass at the end of the projection period, relative to the starting (1995) level (used as a proxy for K, the unfished biomass), for each species averaged across the entire area and separately for each zone</t>
+        </is>
+      </c>
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G117" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H117" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I117" s="5" t="inlineStr">
+        <is>
+          <t>P(SSB(2030)/SSB(1995))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
+        <is>
+          <t>Relative Spawning Biomass</t>
+        </is>
+      </c>
+      <c r="D118" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>SSB(2030)/SSB(2030 SQ). the expected spawning biomass at the end of the projection period, relative to the comparable simulation no-fishing trial with no
+climate-change effects, for each species averaged across entire area. The same set of random numbers was used to generate sets of 480 no-fishing projections for each species and zone, as a baseline for comparisons with the range of projections with
+fishing and climate change.</t>
+        </is>
+      </c>
+      <c r="F118" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H118" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I118" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>Biomass below limit</t>
+        </is>
+      </c>
+      <c r="D119" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>Risk of falling below limit biomass level of 20 % unfished biomass during the projection period for each species across all simulations and replicates, and for all spatial areas combined as well as for individual zones</t>
+        </is>
+      </c>
+      <c r="F119" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G119" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H119" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I119" s="5" t="inlineStr">
+        <is>
+          <t>P(SSB&lt;SSB(20%)), P(SSB&lt;SSB(30%)),
+P(SSB&lt;SSB(target))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>Average Catch</t>
+        </is>
+      </c>
+      <c r="D120" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>Average Catch over 2011 to 2030 (for each zone as well as the entire area, and for four groups of species: very high (sandfish), high (black teatfish and white
+teatfish), medium (surf redfish, prickly redfish, deepwater redfish and hairy blackfish) and low value (leopardfish).</t>
+        </is>
+      </c>
+      <c r="F120" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H120" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I120" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>Species Composition</t>
+        </is>
+      </c>
+      <c r="D121" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>Species composition computed as the relative abundance (in 2030) of each species compared with the species composition from a no-fishing no-climate-change scenario. This takes into account the sometimes large historic catches (Plagányi et al. 2011c) as well as allowing for a 20-year recovery period.</t>
+        </is>
+      </c>
+      <c r="F121" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G121" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H121" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I121" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C122" s="5" t="inlineStr">
+        <is>
+          <t>Average annual profit</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E122" s="6" t="inlineStr">
+        <is>
+          <t>the landed weight of each species multiplied by current average market prices.</t>
+        </is>
+      </c>
+      <c r="F122" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H122" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I122" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>Long-term biomass</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>Mean spawning biomass relative to SMSY</t>
+        </is>
+      </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G123" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H123" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I123" s="5" t="inlineStr">
+        <is>
+          <t>S/S(msy)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>Probability of being overfished</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E124" s="6" t="inlineStr">
+        <is>
+          <t>Proportion of years overfished (S &lt; 0.5Starg)</t>
+        </is>
+      </c>
+      <c r="F124" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H124" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I124" s="5" t="inlineStr">
+        <is>
+          <t>P(S&lt;0.5*S(target))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>Initial catch</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>Mean catch in first 5 years relative to MSY</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G125" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H125" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I125" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>Long-term catch</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>Mean catch over final 20 years relative to MSY</t>
+        </is>
+      </c>
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H126" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I126" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>Catch AAV</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>Relative interannual variation in catch</t>
+        </is>
+      </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G127" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H127" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I127" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>Overfishing magnitude</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>Mean fishing mortality rate relative to
+F(lim) when overfishing occurs</t>
+        </is>
+      </c>
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H128" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I128" s="5" t="inlineStr">
+        <is>
+          <t>F/F(lim)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>Probability of overfishing</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>P(of) Proportion of years when F &gt; Flim</t>
+        </is>
+      </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G129" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H129" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I129" s="5" t="inlineStr">
+        <is>
+          <t>P(F&gt;F(lim))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>Rebuilding years</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>No. of years to rebuild (heavily exploited
+runs only)</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H130" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I130" s="5" t="inlineStr">
+        <is>
+          <t>T(rebuild)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB files - Excel/tblStudyObjectives.xlsx
+++ b/DB files - Excel/tblStudyObjectives.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -6372,6 +6372,1536 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>Objective Function</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>R=v(F)2H(F)+v(M)H(M). R is the reward H(F) and H(M) are number of female and male horseshoe crabs harvested, and v(F)t and v(M) are value functions determined by the level of female and male horseshoe crab harvest. The value function for females takes the value of one if red knot abundance exceeds 45 000 (i.e. 22 500 female red knot) or female horseshoe crab abundance exceeds 80% of carrying capacity (i.e. 11 million) and takes the value of zero otherwise. The value function for males is related to sex ratio, so that the function takes the value of zero when operational sex ratio (sex ratio on the spawning beach, expressed as males : females) is below 2 : 1, takes the value of one when operational sex ratio exceeds 3 : 1, and changes linearly in between those thresholds.</t>
+        </is>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G131" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H131" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I131" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C132" s="5" t="inlineStr">
+        <is>
+          <t>Red Knot abundance</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>takes the value of one if red knot abundance exceeds 45 000 (i.e. 22 500 female red knot)</t>
+        </is>
+      </c>
+      <c r="F132" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H132" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I132" s="5" t="inlineStr">
+        <is>
+          <t>Red knot abundance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>Horseshoe crab abundance</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>female horseshoe crab abundance exceeds 80% of carrying capacity (i.e. 11 million)</t>
+        </is>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G133" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H133" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I133" s="5" t="inlineStr">
+        <is>
+          <t>Horseshoe crab abundance</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>Biomass relative to targets</t>
+        </is>
+      </c>
+      <c r="D134" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>Relative biomass at the end of the projection period (relative to management targets). relative biomass target (25%)</t>
+        </is>
+      </c>
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H134" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I134" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>Probability of overfishing</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>P(ABC&gt;OFL(true)). Probability that the allowable biological catch was set at a level greater than the overfishing limit</t>
+        </is>
+      </c>
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G135" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H135" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I135" s="5" t="inlineStr">
+        <is>
+          <t>P(ABC&gt;OFL(true))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>Probability stock is overfished</t>
+        </is>
+      </c>
+      <c r="D136" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>The probability of being overfished (flatfish: &lt; 0.125B0, rock-fish: &lt; 0.25B0) at the end of the projection period.</t>
+        </is>
+      </c>
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H136" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I136" s="5" t="inlineStr">
+        <is>
+          <t>P(B&lt;[0.125/0.25]B(0))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>Catch relative to precautionary target</t>
+        </is>
+      </c>
+      <c r="D137" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>The percent of the estimated catch realized over the projection period relative to the operating model OFL by each estimation.A perfect performance for the catch-only estimation methodswould be 69% (ABC = 69% OFL) and 83% (ABC = 83% OFL) for thedata-moderate estimation methods.</t>
+        </is>
+      </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G137" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H137" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I137" s="5" t="inlineStr">
+        <is>
+          <t>% of OFL</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>Variability in available catch</t>
+        </is>
+      </c>
+      <c r="D138" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>The average annual variability of ABC catches (abbreviation AAV)over the projection period</t>
+        </is>
+      </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H138" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I138" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Stock Biomass</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E139" s="6" t="inlineStr">
+        <is>
+          <t>Ability to achieve the limit reference point Blim for SSB (Blim = 160 000 t)</t>
+        </is>
+      </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G139" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H139" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I139" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>Fishing Rate</t>
+        </is>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>Ability to achieve target F (F = 0.3)</t>
+        </is>
+      </c>
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H140" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I140" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>Rebuild spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E141" s="6" t="inlineStr">
+        <is>
+          <t>Rebuilding the spawning biomass (SSB) to 1980 levels by 2020)</t>
+        </is>
+      </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>Constraint</t>
+        </is>
+      </c>
+      <c r="G141" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H141" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I141" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>Catch reduction</t>
+        </is>
+      </c>
+      <c r="D142" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>Minimize short term catch reduction</t>
+        </is>
+      </c>
+      <c r="F142" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H142" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I142" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="inlineStr">
+        <is>
+          <t>Average Catch</t>
+        </is>
+      </c>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E143" s="6" t="inlineStr">
+        <is>
+          <t>Maximize long term average catch</t>
+        </is>
+      </c>
+      <c r="F143" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G143" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H143" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I143" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <t>Catch variability</t>
+        </is>
+      </c>
+      <c r="D144" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E144" s="6" t="inlineStr">
+        <is>
+          <t>Minimize variability in annual catch</t>
+        </is>
+      </c>
+      <c r="F144" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H144" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I144" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="D145" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E145" s="6" t="inlineStr">
+        <is>
+          <t>Total cost</t>
+        </is>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G145" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H145" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I145" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>Trap effectiveness</t>
+        </is>
+      </c>
+      <c r="D146" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E146" s="6" t="inlineStr">
+        <is>
+          <t>Increase in trap effectiveness (TE) required to achieve status quo management results</t>
+        </is>
+      </c>
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H146" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I146" s="5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <t>Trap effectiveness increase</t>
+        </is>
+      </c>
+      <c r="D147" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E147" s="6" t="inlineStr">
+        <is>
+          <t>Increase in trap effectiveness (TE) required to achieve a 10% improvement in status quo management results</t>
+        </is>
+      </c>
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G147" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H147" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I147" s="5" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <t>Lamprey abundance</t>
+        </is>
+      </c>
+      <c r="D148" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E148" s="6" t="inlineStr">
+        <is>
+          <t>Percent of simulations with reduced lamprey abundance relative to status quo management results</t>
+        </is>
+      </c>
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H148" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I148" s="5" t="inlineStr">
+        <is>
+          <t>p(N&lt;N(sq))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <t>Legal Catch</t>
+        </is>
+      </c>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E149" s="6" t="inlineStr">
+        <is>
+          <t>Legal catch in number of crabs caught</t>
+        </is>
+      </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G149" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H149" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I149" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <t>Abundance</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E150" s="6" t="inlineStr">
+        <is>
+          <t>Crab abundance</t>
+        </is>
+      </c>
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H150" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I150" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>Population CV</t>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>population coefficient of variation</t>
+        </is>
+      </c>
+      <c r="F151" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G151" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H151" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I151" s="5" t="inlineStr">
+        <is>
+          <t>CV(N)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>Catch CV</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E152" s="6" t="inlineStr">
+        <is>
+          <t>catch coefficient of variation</t>
+        </is>
+      </c>
+      <c r="F152" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H152" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I152" s="5" t="inlineStr">
+        <is>
+          <t>CV(C)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>Catch shock</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>P(delta C&gt;70k) probability of catch declines greater than 70 000 crabs per year</t>
+        </is>
+      </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G153" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H153" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I153" s="5" t="inlineStr">
+        <is>
+          <t>P(delta C&gt;70k)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>Catch minimum</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>absolute minimum catch</t>
+        </is>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H154" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I154" s="5" t="inlineStr">
+        <is>
+          <t>C(min)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D155" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>Average annual catch.  Median, and 90% CL</t>
+        </is>
+      </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G155" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H155" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I155" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>Egg production</t>
+        </is>
+      </c>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E156" s="6" t="inlineStr">
+        <is>
+          <t>P(mat) the probability that the egg production drops below the egg production in 2009/2010.</t>
+        </is>
+      </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H156" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I156" s="5" t="inlineStr">
+        <is>
+          <t>P(mat)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>P(expl) the probability that the exploitable biomass in the middle of November drops below the corresponding exploitable biomass in 2009/2010</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G157" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H157" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I157" s="5" t="inlineStr">
+        <is>
+          <t>P(expl)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>Variation in catch</t>
+        </is>
+      </c>
+      <c r="D158" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>AAV average annual variation in catch</t>
+        </is>
+      </c>
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H158" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I158" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D159" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E159" s="6" t="inlineStr">
+        <is>
+          <t>Average percentage of B(0) remaining in the system</t>
+        </is>
+      </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G159" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H159" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I159" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>Harvest</t>
+        </is>
+      </c>
+      <c r="D160" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E160" s="6" t="inlineStr">
+        <is>
+          <t>Average recreational harvest</t>
+        </is>
+      </c>
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H160" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I160" s="5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>Size of catch</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E161" s="6" t="inlineStr">
+        <is>
+          <t>Average length of yellow perch harvested in recreational fishery</t>
+        </is>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G161" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H161" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I161" s="5" t="inlineStr">
+        <is>
+          <t>TL (cm)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>Spawning stock biomass above threshold</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E162" s="6" t="inlineStr">
+        <is>
+          <t>Percentage of years with SSB below 20% B(0)</t>
+        </is>
+      </c>
+      <c r="F162" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H162" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I162" s="5" t="inlineStr">
+        <is>
+          <t>p(SSB &lt; 0.2 B(0))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C163" s="5" t="inlineStr">
+        <is>
+          <t>Harvest above threshold</t>
+        </is>
+      </c>
+      <c r="D163" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E163" s="6" t="inlineStr">
+        <is>
+          <t>Percentage of years with harvest below 1.5 million fish</t>
+        </is>
+      </c>
+      <c r="F163" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G163" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H163" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I163" s="5" t="inlineStr">
+        <is>
+          <t>p(H&lt;1.5M)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C164" s="5" t="inlineStr">
+        <is>
+          <t>Length above threshold</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E164" s="6" t="inlineStr">
+        <is>
+          <t>Percentage of years with TL below 21.59cm</t>
+        </is>
+      </c>
+      <c r="F164" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H164" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I164" s="5" t="inlineStr">
+        <is>
+          <t>p(TL &lt; 21.59)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DB files - Excel/tblStudyObjectives.xlsx
+++ b/DB files - Excel/tblStudyObjectives.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -7902,6 +7902,4735 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>OPT Catch</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>Ocean Prawn Trawl catch</t>
+        </is>
+      </c>
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G165" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H165" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I165" s="5" t="inlineStr">
+        <is>
+          <t>C (tonnes)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C166" s="5" t="inlineStr">
+        <is>
+          <t>EPT Catch</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E166" s="6" t="inlineStr">
+        <is>
+          <t>Estuary Prawn Trawl catch</t>
+        </is>
+      </c>
+      <c r="F166" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H166" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I166" s="5" t="inlineStr">
+        <is>
+          <t>C (tonnes)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C167" s="5" t="inlineStr">
+        <is>
+          <t>Depletion Ratio</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E167" s="6" t="inlineStr">
+        <is>
+          <t>Estimated Biomass 2015/Estimated Biomass 1985</t>
+        </is>
+      </c>
+      <c r="F167" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G167" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H167" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I167" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Biomass</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>spawning biomass relative to the reference level SB40%</t>
+        </is>
+      </c>
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H168" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I168" s="5" t="inlineStr">
+        <is>
+          <t>SB/SB(40%)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Biomass below limit</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>the probability that the spawning biomass fell below SB20%</t>
+        </is>
+      </c>
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G169" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H169" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I169" s="5" t="inlineStr">
+        <is>
+          <t>p(SB&lt;SB(20%))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C170" s="5" t="inlineStr">
+        <is>
+          <t>Catch above limit</t>
+        </is>
+      </c>
+      <c r="D170" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>the probability that the catch was higher than OFL</t>
+        </is>
+      </c>
+      <c r="F170" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G170" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H170" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I170" s="5" t="inlineStr">
+        <is>
+          <t>p(C&gt;C(OFL))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C171" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>Catch over the projection period</t>
+        </is>
+      </c>
+      <c r="F171" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G171" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H171" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I171" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C172" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="D172" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>Yield, the sum of the annual yields taken from the stock for each run over the 50 years of the simulation (in tonnes)</t>
+        </is>
+      </c>
+      <c r="F172" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G172" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H172" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I172" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>Fishing mortality</t>
+        </is>
+      </c>
+      <c r="D173" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>Fbar, the average fishing mortality over the 50 years of simulation</t>
+        </is>
+      </c>
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G173" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H173" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I173" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C174" s="5" t="inlineStr">
+        <is>
+          <t>Biomass below limit</t>
+        </is>
+      </c>
+      <c r="D174" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>percentages of the years in each run for which the stock was below the limit</t>
+        </is>
+      </c>
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H174" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I174" s="5" t="inlineStr">
+        <is>
+          <t>B(lim)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>Biomass below target</t>
+        </is>
+      </c>
+      <c r="D175" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>percentages of the years in each run for which the stock was below the target</t>
+        </is>
+      </c>
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G175" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H175" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I175" s="5" t="inlineStr">
+        <is>
+          <t>B(pa)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>Recovery probability</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>a high probability of the stock recovering by the T(MAX) selected when the rebuilding plan was originally developed</t>
+        </is>
+      </c>
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H176" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I176" s="5" t="inlineStr">
+        <is>
+          <t>p(recovery)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>high catches during rebuilding</t>
+        </is>
+      </c>
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G177" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H177" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I177" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C178" s="5" t="inlineStr">
+        <is>
+          <t>Catch variability</t>
+        </is>
+      </c>
+      <c r="D178" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>low interannual variation in catches</t>
+        </is>
+      </c>
+      <c r="F178" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H178" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I178" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C179" s="5" t="inlineStr">
+        <is>
+          <t>Number of rebuilding plans</t>
+        </is>
+      </c>
+      <c r="D179" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>stability in the rebuilding plan (i.e., minimizing the number of rebuilding plan failures)</t>
+        </is>
+      </c>
+      <c r="F179" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G179" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H179" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I179" s="5" t="inlineStr">
+        <is>
+          <t># of plans</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C180" s="5" t="inlineStr">
+        <is>
+          <t>Rebuilding ratio</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>R. The “rebuilding ratio,” the ratio of the difference in the number of years between the actual and perceived number of years to recovery (yTrue
+rec and yPerc rec ) to the difference between the actual number of years to recovery and 2048 [the year that recovery to BMSY is predicted to occur based on the reference management procedure when the rebuilding plan is first implemented]</t>
+        </is>
+      </c>
+      <c r="F180" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G180" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H180" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I180" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>Stock Status</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>B/B(0).  Biomass relative to unfished biomass over final ten years</t>
+        </is>
+      </c>
+      <c r="F181" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G181" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H181" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I181" s="5" t="inlineStr">
+        <is>
+          <t>B/B(0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C182" s="5" t="inlineStr">
+        <is>
+          <t>TAC</t>
+        </is>
+      </c>
+      <c r="D182" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>Average TAC over final ten years</t>
+        </is>
+      </c>
+      <c r="F182" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G182" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H182" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I182" s="5" t="inlineStr">
+        <is>
+          <t>TAC</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>Minimum Stock Status</t>
+        </is>
+      </c>
+      <c r="D183" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E183" s="6" t="inlineStr">
+        <is>
+          <t>min(B/B(0)).  Minimum biomass relative to unfished biomass over final ten years</t>
+        </is>
+      </c>
+      <c r="F183" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G183" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H183" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I183" s="5" t="inlineStr">
+        <is>
+          <t>min(B/B(0))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>Below Limit Biomass</t>
+        </is>
+      </c>
+      <c r="D184" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E184" s="6" t="inlineStr">
+        <is>
+          <t>p(B&lt;B(20)). Probablility biomass is less than limit of 20% of unfished biomass over final ten years</t>
+        </is>
+      </c>
+      <c r="F184" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H184" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I184" s="5" t="inlineStr">
+        <is>
+          <t>p(B&lt;B(20))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C185" s="5" t="inlineStr">
+        <is>
+          <t>Improved water quality</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E185" s="6" t="inlineStr">
+        <is>
+          <t>The metric used to assess the performance of this goal was the ratio of benthic calcifiers to non-calcifiers with calcifiers defined as corals and crustose-coralline algae (CCA) and non-calcifiers as turf and macroalgae</t>
+        </is>
+      </c>
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G185" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H185" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I185" s="5" t="inlineStr">
+        <is>
+          <t>calcifiers/non-calcifiers</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C186" s="5" t="inlineStr">
+        <is>
+          <t>Increased reef resilience</t>
+        </is>
+      </c>
+      <c r="D186" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>Performance metrics for this goal were biomass of different ecologically important herbivorous fishes, as these groups are critical for maintaining coral-reef habitat and reversing macroalgal strands to cropped states</t>
+        </is>
+      </c>
+      <c r="F186" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H186" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I186" s="5" t="inlineStr">
+        <is>
+          <t>B(herbs)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C187" s="5" t="inlineStr">
+        <is>
+          <t>Enhanced fish biomass</t>
+        </is>
+      </c>
+      <c r="D187" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E187" s="6" t="inlineStr">
+        <is>
+          <t>Modeled outcome of total fish biomass was used as the metric for the performance of this goal</t>
+        </is>
+      </c>
+      <c r="F187" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G187" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H187" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I187" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>fishery landings</t>
+        </is>
+      </c>
+      <c r="D188" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E188" s="6" t="inlineStr">
+        <is>
+          <t>landings of reef fish</t>
+        </is>
+      </c>
+      <c r="F188" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H188" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I188" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>fishery explotation</t>
+        </is>
+      </c>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>the number of functional fish groups that are not overexploited</t>
+        </is>
+      </c>
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G189" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H189" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I189" s="5" t="inlineStr">
+        <is>
+          <t>B&gt;B(exploited)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C190" s="5" t="inlineStr">
+        <is>
+          <t>Frequency of management interventions</t>
+        </is>
+      </c>
+      <c r="D190" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>each management intervention has a specific financial cost, and this cost compounds as the number of interventions increases. Reducing the number of interventions will help keep costs low. The performance indicator used to capture this objective is the number of interventions over a 90-year forecast period (between 2010 and 2100)</t>
+        </is>
+      </c>
+      <c r="F190" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H190" s="5" t="inlineStr">
+        <is>
+          <t>Proxy</t>
+        </is>
+      </c>
+      <c r="I190" s="5" t="inlineStr">
+        <is>
+          <t># of interventions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C191" s="5" t="inlineStr">
+        <is>
+          <t>Shoreline recession</t>
+        </is>
+      </c>
+      <c r="D191" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>local councils, residents, and stakeholders generally desire to keep shoreline position as close to a reference level as possible in order to provide this amenity for local communities as well as to attract tourism and the economic benefits of tourism in the local area. This objective desires to keep shoreline position as close to 2010 levels as possible, with the performance indicator measuring the average beach recession between 2010 and 2100</t>
+        </is>
+      </c>
+      <c r="F191" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G191" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H191" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I191" s="5" t="inlineStr">
+        <is>
+          <t>Recession</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>Relative shoreline recession</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>given that shoreline position will vary according to stochastic fluctuations, trends in recession, and management intervention, this objective requires as low variability in shoreline position as possible over the time period of 2010 to 2100 to ensure that local communities and tourists are able take advantage of this natural amenity continuously. The performance indicator for this objective measured the maximum amount of recession between 2010 and 2100.</t>
+        </is>
+      </c>
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H192" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I192" s="5" t="inlineStr">
+        <is>
+          <t>Max(recession)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>Clam density</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E193" s="6" t="inlineStr">
+        <is>
+          <t>clam whole-stock density, which is the number of clams ≥120 mm SL per square meter (the fishable stock is defined as clams ≥120 SL mm [NEFSC2])</t>
+        </is>
+      </c>
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G193" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H193" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I193" s="5" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>Clams per bushel</t>
+        </is>
+      </c>
+      <c r="D194" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E194" s="6" t="inlineStr">
+        <is>
+          <t>Number of clams per bushel</t>
+        </is>
+      </c>
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H194" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I194" s="5" t="inlineStr">
+        <is>
+          <t># of clams</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>Landings per unit effort</t>
+        </is>
+      </c>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E195" s="6" t="inlineStr">
+        <is>
+          <t>LPUE, which is the number of bushels fished per hour</t>
+        </is>
+      </c>
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G195" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H195" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I195" s="5" t="inlineStr">
+        <is>
+          <t>LPUE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>Areas fished</t>
+        </is>
+      </c>
+      <c r="D196" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E196" s="6" t="inlineStr">
+        <is>
+          <t>the number of 10′ squares fished</t>
+        </is>
+      </c>
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H196" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I196" s="5" t="inlineStr">
+        <is>
+          <t># of areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>Distance per trip</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E197" s="6" t="inlineStr">
+        <is>
+          <t>the total distance traveled per fishing trip (in kilometers)</t>
+        </is>
+      </c>
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G197" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H197" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I197" s="5" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>Clam density</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E198" s="6" t="inlineStr">
+        <is>
+          <t>clam whole-stock density, which is the number of clams ≥120 mm SL per square meter (the fishable stock is defined as clams ≥120 SL mm [NEFSC2])</t>
+        </is>
+      </c>
+      <c r="F198" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H198" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I198" s="5" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>Distance per trip</t>
+        </is>
+      </c>
+      <c r="D199" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E199" s="6" t="inlineStr">
+        <is>
+          <t>the total distance traveled per fishing trip (in kilometers)</t>
+        </is>
+      </c>
+      <c r="F199" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G199" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H199" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I199" s="5" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C200" s="5" t="inlineStr">
+        <is>
+          <t>Areas fished</t>
+        </is>
+      </c>
+      <c r="D200" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E200" s="6" t="inlineStr">
+        <is>
+          <t>the number of 10′ squares fished</t>
+        </is>
+      </c>
+      <c r="F200" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G200" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H200" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I200" s="5" t="inlineStr">
+        <is>
+          <t># of areas</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C201" s="5" t="inlineStr">
+        <is>
+          <t>Landings per unit effort</t>
+        </is>
+      </c>
+      <c r="D201" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E201" s="6" t="inlineStr">
+        <is>
+          <t>LPUE, which is the number of bushels fished per hour</t>
+        </is>
+      </c>
+      <c r="F201" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G201" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H201" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I201" s="5" t="inlineStr">
+        <is>
+          <t>LPUE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C202" s="5" t="inlineStr">
+        <is>
+          <t>Clams per bushel</t>
+        </is>
+      </c>
+      <c r="D202" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E202" s="6" t="inlineStr">
+        <is>
+          <t>Number of clams per bushel</t>
+        </is>
+      </c>
+      <c r="F202" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G202" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H202" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I202" s="5" t="inlineStr">
+        <is>
+          <t># of clams</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>Spawning Stock Biomass</t>
+        </is>
+      </c>
+      <c r="D203" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E203" s="6" t="inlineStr">
+        <is>
+          <t>Spawning stock level, weight = 2</t>
+        </is>
+      </c>
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G203" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H203" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I203" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C204" s="5" t="inlineStr">
+        <is>
+          <t>Stock below limit</t>
+        </is>
+      </c>
+      <c r="D204" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E204" s="6" t="inlineStr">
+        <is>
+          <t>Number of years stock falls below B20%, weight = 1</t>
+        </is>
+      </c>
+      <c r="F204" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G204" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H204" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I204" s="5" t="inlineStr">
+        <is>
+          <t>count(B(y)&lt;B(20%))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C205" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D205" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E205" s="6" t="inlineStr">
+        <is>
+          <t>Mean catch, weight = 1.5</t>
+        </is>
+      </c>
+      <c r="F205" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G205" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H205" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I205" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C206" s="5" t="inlineStr">
+        <is>
+          <t>Fishery Closure</t>
+        </is>
+      </c>
+      <c r="D206" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E206" s="6" t="inlineStr">
+        <is>
+          <t>Number of years that fishery closes, weight = 3</t>
+        </is>
+      </c>
+      <c r="F206" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G206" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H206" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I206" s="5" t="inlineStr">
+        <is>
+          <t>count(C=0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C207" s="5" t="inlineStr">
+        <is>
+          <t>Catch Variability</t>
+        </is>
+      </c>
+      <c r="D207" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E207" s="6" t="inlineStr">
+        <is>
+          <t>Interannual catch variability</t>
+        </is>
+      </c>
+      <c r="F207" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G207" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H207" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I207" s="5" t="inlineStr">
+        <is>
+          <t>var(C)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C208" s="5" t="inlineStr">
+        <is>
+          <t>Catch variability</t>
+        </is>
+      </c>
+      <c r="D208" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E208" s="6" t="inlineStr">
+        <is>
+          <t>Catch variability</t>
+        </is>
+      </c>
+      <c r="F208" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G208" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H208" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I208" s="5" t="inlineStr">
+        <is>
+          <t>var(C)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>Overall discards</t>
+        </is>
+      </c>
+      <c r="D209" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E209" s="6" t="inlineStr">
+        <is>
+          <t>minimize total discards across species</t>
+        </is>
+      </c>
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G209" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H209" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I209" s="5" t="inlineStr">
+        <is>
+          <t>Discard</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>Habitat impact</t>
+        </is>
+      </c>
+      <c r="D210" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E210" s="6" t="inlineStr">
+        <is>
+          <t>minimize total area impacted</t>
+        </is>
+      </c>
+      <c r="F210" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H210" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I210" s="5" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>TEP interactions</t>
+        </is>
+      </c>
+      <c r="D211" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E211" s="6" t="inlineStr">
+        <is>
+          <t>TEP interactions</t>
+        </is>
+      </c>
+      <c r="F211" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G211" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H211" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I211" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>Effort</t>
+        </is>
+      </c>
+      <c r="D212" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E212" s="6" t="inlineStr">
+        <is>
+          <t>Total effort</t>
+        </is>
+      </c>
+      <c r="F212" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H212" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I212" s="5" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>Landings</t>
+        </is>
+      </c>
+      <c r="D213" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E213" s="6" t="inlineStr">
+        <is>
+          <t>Total landings</t>
+        </is>
+      </c>
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G213" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H213" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I213" s="5" t="inlineStr">
+        <is>
+          <t>landings</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>CPUE</t>
+        </is>
+      </c>
+      <c r="D214" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E214" s="6" t="inlineStr">
+        <is>
+          <t>Catch per unit effort</t>
+        </is>
+      </c>
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H214" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I214" s="5" t="inlineStr">
+        <is>
+          <t>CPUE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>Catch size</t>
+        </is>
+      </c>
+      <c r="D215" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E215" s="6" t="inlineStr">
+        <is>
+          <t>average size of the catch</t>
+        </is>
+      </c>
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G215" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H215" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I215" s="5" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>Catch composition</t>
+        </is>
+      </c>
+      <c r="D216" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E216" s="6" t="inlineStr">
+        <is>
+          <t>Proportion of catch due to one species</t>
+        </is>
+      </c>
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H216" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I216" s="5" t="inlineStr">
+        <is>
+          <t>max(proportion)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>Access to fishery</t>
+        </is>
+      </c>
+      <c r="D217" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E217" s="6" t="inlineStr">
+        <is>
+          <t>maximiize access to fishery.  Reflects spatial or other regulatory constraints</t>
+        </is>
+      </c>
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G217" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H217" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I217" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>Stability of management</t>
+        </is>
+      </c>
+      <c r="D218" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E218" s="6" t="inlineStr">
+        <is>
+          <t>Year-to-year stability of management</t>
+        </is>
+      </c>
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H218" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I218" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C219" s="5" t="inlineStr">
+        <is>
+          <t>Volume of quota trading</t>
+        </is>
+      </c>
+      <c r="D219" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E219" s="6" t="inlineStr">
+        <is>
+          <t>Volume of quota trading</t>
+        </is>
+      </c>
+      <c r="F219" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G219" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H219" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I219" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C220" s="5" t="inlineStr">
+        <is>
+          <t>Overall management costs</t>
+        </is>
+      </c>
+      <c r="D220" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E220" s="6" t="inlineStr">
+        <is>
+          <t>General administration</t>
+        </is>
+      </c>
+      <c r="F220" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H220" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I220" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C221" s="5" t="inlineStr">
+        <is>
+          <t>Research costs</t>
+        </is>
+      </c>
+      <c r="D221" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E221" s="6" t="inlineStr">
+        <is>
+          <t>Ecological data for assessments</t>
+        </is>
+      </c>
+      <c r="F221" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G221" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H221" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I221" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C222" s="5" t="inlineStr">
+        <is>
+          <t>Enforcement costs</t>
+        </is>
+      </c>
+      <c r="D222" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E222" s="6" t="inlineStr">
+        <is>
+          <t>Patrolling; VMS costs</t>
+        </is>
+      </c>
+      <c r="F222" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H222" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I222" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C223" s="5" t="inlineStr">
+        <is>
+          <t>Costs of monitoring</t>
+        </is>
+      </c>
+      <c r="D223" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E223" s="6" t="inlineStr">
+        <is>
+          <t>Surveys and observers</t>
+        </is>
+      </c>
+      <c r="F223" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G223" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H223" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I223" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C224" s="5" t="inlineStr">
+        <is>
+          <t>Assessment costs</t>
+        </is>
+      </c>
+      <c r="D224" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E224" s="6" t="inlineStr">
+        <is>
+          <t>Assessment costs</t>
+        </is>
+      </c>
+      <c r="F224" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H224" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I224" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>Public Image</t>
+        </is>
+      </c>
+      <c r="D225" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E225" s="6" t="inlineStr">
+        <is>
+          <t>Based on the relative state of the ecological system, port population size and profitability of the system</t>
+        </is>
+      </c>
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G225" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H225" s="5" t="inlineStr">
+        <is>
+          <t>Constructed</t>
+        </is>
+      </c>
+      <c r="I225" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C226" s="5" t="inlineStr">
+        <is>
+          <t>Frequency of gear conflict</t>
+        </is>
+      </c>
+      <c r="D226" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E226" s="6" t="inlineStr">
+        <is>
+          <t>Count of adverse gear interactions</t>
+        </is>
+      </c>
+      <c r="F226" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G226" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H226" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I226" s="5" t="inlineStr">
+        <is>
+          <t># of interactions</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C227" s="5" t="inlineStr">
+        <is>
+          <t>Level of port activity</t>
+        </is>
+      </c>
+      <c r="D227" s="5" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E227" s="6" t="inlineStr">
+        <is>
+          <t>Function of landings</t>
+        </is>
+      </c>
+      <c r="F227" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G227" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H227" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I227" s="5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C228" s="5" t="inlineStr">
+        <is>
+          <t>Gross value of landed catch</t>
+        </is>
+      </c>
+      <c r="D228" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E228" s="6" t="inlineStr">
+        <is>
+          <t>Gross value of landed catch</t>
+        </is>
+      </c>
+      <c r="F228" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G228" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H228" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I228" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C229" s="5" t="inlineStr">
+        <is>
+          <t>Total operating costs</t>
+        </is>
+      </c>
+      <c r="D229" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E229" s="6" t="inlineStr">
+        <is>
+          <t>Summed over fuel, gear, refrigeration &amp; transport, unloading, capital &amp; fixed costs.</t>
+        </is>
+      </c>
+      <c r="F229" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G229" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H229" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I229" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+      <c r="B230" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C230" s="5" t="inlineStr">
+        <is>
+          <t>Total profits</t>
+        </is>
+      </c>
+      <c r="D230" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E230" s="6" t="inlineStr">
+        <is>
+          <t>With a penalty function for losses</t>
+        </is>
+      </c>
+      <c r="F230" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G230" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H230" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I230" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C231" s="5" t="inlineStr">
+        <is>
+          <t>Profit per tonne landed</t>
+        </is>
+      </c>
+      <c r="D231" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E231" s="6" t="inlineStr">
+        <is>
+          <t>Across all species</t>
+        </is>
+      </c>
+      <c r="F231" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G231" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H231" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I231" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+      <c r="B232" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C232" s="5" t="inlineStr">
+        <is>
+          <t>Profit per effort</t>
+        </is>
+      </c>
+      <c r="D232" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E232" s="6" t="inlineStr">
+        <is>
+          <t>Profit per effort</t>
+        </is>
+      </c>
+      <c r="F232" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G232" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H232" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I232" s="5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C233" s="5" t="inlineStr">
+        <is>
+          <t>Biomass of target species</t>
+        </is>
+      </c>
+      <c r="D233" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E233" s="6" t="inlineStr">
+        <is>
+          <t>Biomass of target species</t>
+        </is>
+      </c>
+      <c r="F233" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G233" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H233" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I233" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C234" s="5" t="inlineStr">
+        <is>
+          <t>Biomass of bycatch species</t>
+        </is>
+      </c>
+      <c r="D234" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E234" s="6" t="inlineStr">
+        <is>
+          <t>Biomass of bycatch species</t>
+        </is>
+      </c>
+      <c r="F234" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G234" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H234" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I234" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C235" s="5" t="inlineStr">
+        <is>
+          <t>Microfaunal biomass</t>
+        </is>
+      </c>
+      <c r="D235" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E235" s="6" t="inlineStr">
+        <is>
+          <t>Microfaunal biomass</t>
+        </is>
+      </c>
+      <c r="F235" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G235" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H235" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I235" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C236" s="5" t="inlineStr">
+        <is>
+          <t>Biomass of threatened, endangered &amp; protected species</t>
+        </is>
+      </c>
+      <c r="D236" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E236" s="6" t="inlineStr">
+        <is>
+          <t>Biomass of threatened, endangered &amp; protected species</t>
+        </is>
+      </c>
+      <c r="F236" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H236" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I236" s="5" t="inlineStr">
+        <is>
+          <t>biomass</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>Biomass of higher trophic level species</t>
+        </is>
+      </c>
+      <c r="D237" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E237" s="6" t="inlineStr">
+        <is>
+          <t>Sea birds, marine mammals, large sharks</t>
+        </is>
+      </c>
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G237" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H237" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I237" s="5" t="inlineStr">
+        <is>
+          <t>biomass</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C238" s="5" t="inlineStr">
+        <is>
+          <t>Habitat cover</t>
+        </is>
+      </c>
+      <c r="D238" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E238" s="6" t="inlineStr">
+        <is>
+          <t>Proportional Per habitat type</t>
+        </is>
+      </c>
+      <c r="F238" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H238" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I238" s="5" t="inlineStr">
+        <is>
+          <t>% by type</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C239" s="5" t="inlineStr">
+        <is>
+          <t>Demersal:pelagic biomass ratio</t>
+        </is>
+      </c>
+      <c r="D239" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E239" s="6" t="inlineStr">
+        <is>
+          <t>Of finfish</t>
+        </is>
+      </c>
+      <c r="F239" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G239" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H239" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I239" s="5" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C240" s="5" t="inlineStr">
+        <is>
+          <t>Piscivore:planktivore biomass ratio</t>
+        </is>
+      </c>
+      <c r="D240" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E240" s="6" t="inlineStr">
+        <is>
+          <t>Of finfish</t>
+        </is>
+      </c>
+      <c r="F240" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H240" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I240" s="5" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C241" s="5" t="inlineStr">
+        <is>
+          <t>Change in slope of biomass size spectra</t>
+        </is>
+      </c>
+      <c r="D241" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E241" s="6" t="inlineStr">
+        <is>
+          <t>Change in slope of biomass size spectra</t>
+        </is>
+      </c>
+      <c r="F241" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G241" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H241" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I241" s="5" t="inlineStr">
+        <is>
+          <t>Change in slope</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+      <c r="B242" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C242" s="5" t="inlineStr">
+        <is>
+          <t>proportion of biomass protected</t>
+        </is>
+      </c>
+      <c r="D242" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E242" s="6" t="inlineStr">
+        <is>
+          <t>maximizing the
+proportion of the mature biomass protected</t>
+        </is>
+      </c>
+      <c r="F242" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G242" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H242" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I242" s="5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C243" s="5" t="inlineStr">
+        <is>
+          <t>TAC</t>
+        </is>
+      </c>
+      <c r="D243" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E243" s="6" t="inlineStr">
+        <is>
+          <t>maximizing the TAC</t>
+        </is>
+      </c>
+      <c r="F243" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G243" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H243" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I243" s="5" t="inlineStr">
+        <is>
+          <t>TAC</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+      <c r="B244" s="4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C244" s="5" t="inlineStr">
+        <is>
+          <t>catch efficiency</t>
+        </is>
+      </c>
+      <c r="D244" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E244" s="6" t="inlineStr">
+        <is>
+          <t>minimizing the
+numbers of abalone required to take a given catch</t>
+        </is>
+      </c>
+      <c r="F244" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G244" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H244" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I244" s="5" t="inlineStr">
+        <is>
+          <t>#/C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C245" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="D245" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E245" s="6" t="inlineStr">
+        <is>
+          <t>Median yield (last 5 years) relative to current</t>
+        </is>
+      </c>
+      <c r="F245" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G245" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H245" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I245" s="5" t="inlineStr">
+        <is>
+          <t>C/C(t0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+      <c r="B246" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C246" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D246" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E246" s="6" t="inlineStr">
+        <is>
+          <t>Median biomass (last 5 years) relative to current</t>
+        </is>
+      </c>
+      <c r="F246" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G246" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H246" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I246" s="5" t="inlineStr">
+        <is>
+          <t>B/B(t0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C247" s="5" t="inlineStr">
+        <is>
+          <t>p(Biomass below target)</t>
+        </is>
+      </c>
+      <c r="D247" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E247" s="6" t="inlineStr">
+        <is>
+          <t>B50%: likelihood of biomass dropping below 50 percent BMSY</t>
+        </is>
+      </c>
+      <c r="F247" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G247" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H247" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I247" s="5" t="inlineStr">
+        <is>
+          <t>p(B&lt;0.5*B(msy))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="4">
+        <v>247</v>
+      </c>
+      <c r="B248" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C248" s="5" t="inlineStr">
+        <is>
+          <t>p(overfishing)</t>
+        </is>
+      </c>
+      <c r="D248" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E248" s="6" t="inlineStr">
+        <is>
+          <t>PNOF: probability of not overfishing</t>
+        </is>
+      </c>
+      <c r="F248" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G248" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H248" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I248" s="5" t="inlineStr">
+        <is>
+          <t>1-p(overfishing)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C249" s="5" t="inlineStr">
+        <is>
+          <t>Yeild relative to F(msy)</t>
+        </is>
+      </c>
+      <c r="D249" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E249" s="6" t="inlineStr">
+        <is>
+          <t>LTY: fraction of simulations getting over half FMSY yield in the last ten years of the projection</t>
+        </is>
+      </c>
+      <c r="F249" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G249" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H249" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I249" s="5" t="inlineStr">
+        <is>
+          <t>p(C&gt;0.5*F(msy))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="4">
+        <v>249</v>
+      </c>
+      <c r="B250" s="4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C250" s="5" t="inlineStr">
+        <is>
+          <t>variability in yeild</t>
+        </is>
+      </c>
+      <c r="D250" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E250" s="6" t="inlineStr">
+        <is>
+          <t>AAVY: fraction of simulations where average annual variability in yield is less than 10 percent</t>
+        </is>
+      </c>
+      <c r="F250" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G250" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H250" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I250" s="5" t="inlineStr">
+        <is>
+          <t>p(AAV&lt;1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C251" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+      <c r="D251" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E251" s="6" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G251" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H251" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I251" s="5" t="inlineStr">
+        <is>
+          <t>SSB</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="4">
+        <v>251</v>
+      </c>
+      <c r="B252" s="4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C252" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="D252" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E252" s="6" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="F252" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G252" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H252" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I252" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C253" s="5" t="inlineStr">
+        <is>
+          <t>minimize assessment error</t>
+        </is>
+      </c>
+      <c r="D253" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E253" s="6" t="inlineStr">
+        <is>
+          <t>The root mean square relative error (RMSE) of the SSBs assessed in the first 20 years, i.e., 2005–2024</t>
+        </is>
+      </c>
+      <c r="F253" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G253" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H253" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I253" s="5" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="4">
+        <v>253</v>
+      </c>
+      <c r="B254" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C254" s="5" t="inlineStr">
+        <is>
+          <t>minimize forecasting error</t>
+        </is>
+      </c>
+      <c r="D254" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E254" s="6" t="inlineStr">
+        <is>
+          <t>The root mean square relative error of the estimated terminal SSBs in the next seven prediction years, i.e., 2025–2031</t>
+        </is>
+      </c>
+      <c r="F254" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G254" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H254" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I254" s="5" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C255" s="5" t="inlineStr">
+        <is>
+          <t>Spawning stock biomass above limit</t>
+        </is>
+      </c>
+      <c r="D255" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E255" s="6" t="inlineStr">
+        <is>
+          <t>The probability of the resultant (“true”) SSB being above the “true” reference point Blim in each of seven years of the projection</t>
+        </is>
+      </c>
+      <c r="F255" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G255" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H255" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I255" s="5" t="inlineStr">
+        <is>
+          <t>p(B&gt;B(lim))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="4">
+        <v>255</v>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C256" s="5" t="inlineStr">
+        <is>
+          <t>Variability of spawning stock biomass</t>
+        </is>
+      </c>
+      <c r="D256" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E256" s="6" t="inlineStr">
+        <is>
+          <t>The variability of the resultant (“true”) SSB in the seven prediction years</t>
+        </is>
+      </c>
+      <c r="F256" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G256" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H256" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I256" s="5" t="inlineStr">
+        <is>
+          <t>cv(SSB)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C257" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D257" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E257" s="6" t="inlineStr">
+        <is>
+          <t>The average value of the predicted catch (TAC) in the seven prediction years</t>
+        </is>
+      </c>
+      <c r="F257" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G257" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H257" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I257" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="4">
+        <v>257</v>
+      </c>
+      <c r="B258" s="4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C258" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+      <c r="D258" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E258" s="6" t="inlineStr">
+        <is>
+          <t>The variability of the predicted catch in the seven prediction years</t>
+        </is>
+      </c>
+      <c r="F258" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G258" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H258" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I258" s="5" t="inlineStr">
+        <is>
+          <t>AAV</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C259" s="5" t="inlineStr">
+        <is>
+          <t>Effort</t>
+        </is>
+      </c>
+      <c r="D259" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E259" s="6" t="inlineStr">
+        <is>
+          <t>Total effort</t>
+        </is>
+      </c>
+      <c r="F259" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G259" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H259" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I259" s="5" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="4">
+        <v>259</v>
+      </c>
+      <c r="B260" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C260" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D260" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E260" s="6" t="inlineStr">
+        <is>
+          <t>Total Catch</t>
+        </is>
+      </c>
+      <c r="F260" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G260" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H260" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I260" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C261" s="5" t="inlineStr">
+        <is>
+          <t>CPUE</t>
+        </is>
+      </c>
+      <c r="D261" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E261" s="6" t="inlineStr">
+        <is>
+          <t>Catch per unit effort</t>
+        </is>
+      </c>
+      <c r="F261" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G261" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H261" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I261" s="5" t="inlineStr">
+        <is>
+          <t>CPUE</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="4">
+        <v>261</v>
+      </c>
+      <c r="B262" s="4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C262" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D262" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E262" s="6" t="inlineStr">
+        <is>
+          <t>Mean species biomass across 12 bentic groups as % of unfished biomass</t>
+        </is>
+      </c>
+      <c r="F262" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G262" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H262" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I262" s="5" t="inlineStr">
+        <is>
+          <t>mean(B/B(0))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="4">
+        <v>262</v>
+      </c>
+      <c r="B263" s="4" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C263" s="5" t="inlineStr">
+        <is>
+          <t>Minimize implementation error</t>
+        </is>
+      </c>
+      <c r="D263" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E263" s="6" t="inlineStr">
+        <is>
+          <t>Only a performance metric of % of quota used was provided</t>
+        </is>
+      </c>
+      <c r="F263" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G263" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H263" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I263" s="5" t="inlineStr">
+        <is>
+          <t>C/Quota</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="4">
+        <v>263</v>
+      </c>
+      <c r="B264" s="4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C264" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D264" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E264" s="6" t="inlineStr">
+        <is>
+          <t>Proportion of biomass relative to start of simulation</t>
+        </is>
+      </c>
+      <c r="F264" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G264" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H264" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I264" s="5" t="inlineStr">
+        <is>
+          <t>B/B(0)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="4">
+        <v>264</v>
+      </c>
+      <c r="B265" s="4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C265" s="5" t="inlineStr">
+        <is>
+          <t>Economic Return</t>
+        </is>
+      </c>
+      <c r="D265" s="5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="E265" s="6" t="inlineStr">
+        <is>
+          <t>Sum of discounted net economic return</t>
+        </is>
+      </c>
+      <c r="F265" s="5" t="inlineStr">
+        <is>
+          <t>Maximize</t>
+        </is>
+      </c>
+      <c r="G265" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H265" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I265" s="5" t="inlineStr">
+        <is>
+          <t>net $</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="4">
+        <v>265</v>
+      </c>
+      <c r="B266" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C266" s="5" t="inlineStr">
+        <is>
+          <t>Overfishing</t>
+        </is>
+      </c>
+      <c r="D266" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E266" s="6" t="inlineStr">
+        <is>
+          <t>propensity for overfishing; Overfishing was calculated as the percentage of simulation runs in which ACLs that were specified via the management strategy exceeded the simulated “true” OFLs in at least 50%
+of years over a 25-year duration</t>
+        </is>
+      </c>
+      <c r="F266" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G266" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H266" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I266" s="5" t="inlineStr">
+        <is>
+          <t>p(ACL&gt;ACL(true))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="4">
+        <v>266</v>
+      </c>
+      <c r="B267" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C267" s="5" t="inlineStr">
+        <is>
+          <t>Overfished</t>
+        </is>
+      </c>
+      <c r="D267" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E267" s="6" t="inlineStr">
+        <is>
+          <t>propensity for the stock to become overfished; “overfished” metric was calculated as the percentage of simulation runs during which spawning biomass in the 25th year was below the simulated target threshold of 0.5 × the biomass producing MSY</t>
+        </is>
+      </c>
+      <c r="F267" s="5" t="inlineStr">
+        <is>
+          <t>Minimize</t>
+        </is>
+      </c>
+      <c r="G267" s="5" t="inlineStr">
+        <is>
+          <t>Means</t>
+        </is>
+      </c>
+      <c r="H267" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I267" s="5" t="inlineStr">
+        <is>
+          <t>p(B&lt;0.5*B(MSY))</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="4">
+        <v>267</v>
+      </c>
+      <c r="B268" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C268" s="5" t="inlineStr">
+        <is>
+          <t>Catch</t>
+        </is>
+      </c>
+      <c r="D268" s="5" t="inlineStr">
+        <is>
+          <t>Yield</t>
+        </is>
+      </c>
+      <c r="E268" s="6" t="inlineStr">
+        <is>
+          <t>the ratio of catches to true simulated MSY</t>
+        </is>
+      </c>
+      <c r="F268" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G268" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H268" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I268" s="5" t="inlineStr">
+        <is>
+          <t>C/C(MSY)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="4">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>Biomass</t>
+        </is>
+      </c>
+      <c r="D269" s="5" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="E269" s="6" t="inlineStr">
+        <is>
+          <t>the ratio of spawning biomass to BMSY</t>
+        </is>
+      </c>
+      <c r="F269" s="5" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="G269" s="5" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="H269" s="5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="I269" s="5" t="inlineStr">
+        <is>
+          <t>B/B(MSY)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
